--- a/Data Mentah/Gini Ratio 2020-2024.xlsx
+++ b/Data Mentah/Gini Ratio 2020-2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="57">
   <si>
     <t>38 Provinsi</t>
   </si>
@@ -177,6 +177,15 @@
   <si>
     <t>DI Yogyakarta</t>
   </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
 </sst>
 </file>
 
@@ -218,12 +227,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,199 +570,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT45"/>
+  <dimension ref="A1:BB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AO6" sqref="AO6"/>
+    <sheetView tabSelected="1" topLeftCell="AL23" workbookViewId="0">
+      <selection activeCell="BB4" sqref="BB4:BB42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="52" max="52" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
     </row>
-    <row r="2" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1" t="s">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
     </row>
-    <row r="3" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3">
         <v>2020</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
         <v>2021</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
         <v>2022</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
         <v>2023</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3">
         <v>2024</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3">
         <v>2020</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1">
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3">
         <v>2021</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1">
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3">
         <v>2022</v>
       </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1">
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3">
         <v>2023</v>
       </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1">
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3">
         <v>2024</v>
       </c>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1">
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3">
         <v>2020</v>
       </c>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3">
         <v>2021</v>
       </c>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1">
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3">
         <v>2022</v>
       </c>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1">
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3">
         <v>2023</v>
       </c>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1">
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3">
         <v>2024</v>
       </c>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
     </row>
-    <row r="4" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -888,8 +901,23 @@
       <c r="AS4" t="s">
         <v>7</v>
       </c>
+      <c r="AX4">
+        <v>2020</v>
+      </c>
+      <c r="AY4">
+        <v>2021</v>
+      </c>
+      <c r="AZ4">
+        <v>2022</v>
+      </c>
+      <c r="BA4">
+        <v>2023</v>
+      </c>
+      <c r="BB4">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="5" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1028,8 +1056,37 @@
       <c r="AT5" t="s">
         <v>8</v>
       </c>
+      <c r="AU5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX5" t="str">
+        <f>CONCATENATE($AU$5,A5,$AU$5,$AV$5," ",AG5,$AW$5)</f>
+        <v>"Aceh": 0.319,</v>
+      </c>
+      <c r="AY5" s="1" t="str">
+        <f>CONCATENATE($AU$5,A5,$AU$5,$AV$5," ",AJ5,$AW$5)</f>
+        <v>"Aceh": 0.323,</v>
+      </c>
+      <c r="AZ5" s="1" t="str">
+        <f>CONCATENATE($AU$5,A5,$AU$5,$AV$5," ",AM5,$AW$5)</f>
+        <v>"Aceh": 0.291,</v>
+      </c>
+      <c r="BA5" s="1" t="str">
+        <f>CONCATENATE($AU$5,A5,$AU$5,$AV$5," ",AO5,$AW$5)</f>
+        <v>"Aceh": 0.296,</v>
+      </c>
+      <c r="BB5" s="1" t="str">
+        <f>CONCATENATE($AU$5,A5,$AU$5,$AV$5," ",AS5,$AW$5)</f>
+        <v>"Aceh": 0.294,</v>
+      </c>
     </row>
-    <row r="6" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1168,8 +1225,28 @@
       <c r="AT6" t="s">
         <v>8</v>
       </c>
+      <c r="AX6" s="1" t="str">
+        <f t="shared" ref="AX6:AX43" si="0">CONCATENATE($AU$5,A6,$AU$5,$AV$5," ",AG6,$AW$5)</f>
+        <v>"Sumatera Utara": 0.314,</v>
+      </c>
+      <c r="AY6" s="1" t="str">
+        <f t="shared" ref="AY6:AY43" si="1">CONCATENATE($AU$5,A6,$AU$5,$AV$5," ",AJ6,$AW$5)</f>
+        <v>"Sumatera Utara": 0.313,</v>
+      </c>
+      <c r="AZ6" s="1" t="str">
+        <f t="shared" ref="AZ6:AZ43" si="2">CONCATENATE($AU$5,A6,$AU$5,$AV$5," ",AM6,$AW$5)</f>
+        <v>"Sumatera Utara": 0.326,</v>
+      </c>
+      <c r="BA6" s="1" t="str">
+        <f t="shared" ref="BA6:BA43" si="3">CONCATENATE($AU$5,A6,$AU$5,$AV$5," ",AO6,$AW$5)</f>
+        <v>"Sumatera Utara": 0.309,</v>
+      </c>
+      <c r="BB6" s="1" t="str">
+        <f t="shared" ref="BB6:BB43" si="4">CONCATENATE($AU$5,A6,$AU$5,$AV$5," ",AS6,$AW$5)</f>
+        <v>"Sumatera Utara": 0.306,</v>
+      </c>
     </row>
-    <row r="7" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1308,8 +1385,28 @@
       <c r="AT7" t="s">
         <v>8</v>
       </c>
+      <c r="AX7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Sumatera Barat": 0.301,</v>
+      </c>
+      <c r="AY7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Sumatera Barat": 0.3,</v>
+      </c>
+      <c r="AZ7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Sumatera Barat": 0.292,</v>
+      </c>
+      <c r="BA7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Sumatera Barat": 0.28,</v>
+      </c>
+      <c r="BB7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Sumatera Barat": 0.287,</v>
+      </c>
     </row>
-    <row r="8" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1448,8 +1545,28 @@
       <c r="AT8" t="s">
         <v>8</v>
       </c>
+      <c r="AX8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Riau": 0.321,</v>
+      </c>
+      <c r="AY8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Riau": 0.327,</v>
+      </c>
+      <c r="AZ8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Riau": 0.323,</v>
+      </c>
+      <c r="BA8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Riau": 0.324,</v>
+      </c>
+      <c r="BB8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Riau": 0.306,</v>
+      </c>
     </row>
-    <row r="9" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1588,8 +1705,28 @@
       <c r="AT9" t="s">
         <v>8</v>
       </c>
+      <c r="AX9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Jambi": 0.316,</v>
+      </c>
+      <c r="AY9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Jambi": 0.315,</v>
+      </c>
+      <c r="AZ9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Jambi": 0.335,</v>
+      </c>
+      <c r="BA9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Jambi": 0.343,</v>
+      </c>
+      <c r="BB9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Jambi": 0.315,</v>
+      </c>
     </row>
-    <row r="10" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1728,8 +1865,28 @@
       <c r="AT10" t="s">
         <v>8</v>
       </c>
+      <c r="AX10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Sumatera Selatan": 0.338,</v>
+      </c>
+      <c r="AY10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Sumatera Selatan": 0.34,</v>
+      </c>
+      <c r="AZ10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Sumatera Selatan": 0.33,</v>
+      </c>
+      <c r="BA10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Sumatera Selatan": 0.338,</v>
+      </c>
+      <c r="BB10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Sumatera Selatan": 0.331,</v>
+      </c>
     </row>
-    <row r="11" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1868,8 +2025,28 @@
       <c r="AT11" t="s">
         <v>8</v>
       </c>
+      <c r="AX11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Bengkulu": 0.323,</v>
+      </c>
+      <c r="AY11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Bengkulu": 0.321,</v>
+      </c>
+      <c r="AZ11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Bengkulu": 0.315,</v>
+      </c>
+      <c r="BA11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Bengkulu": 0.333,</v>
+      </c>
+      <c r="BB11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Bengkulu": 0.343,</v>
+      </c>
     </row>
-    <row r="12" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2008,8 +2185,28 @@
       <c r="AT12" t="s">
         <v>8</v>
       </c>
+      <c r="AX12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Lampung": 0.32,</v>
+      </c>
+      <c r="AY12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Lampung": 0.314,</v>
+      </c>
+      <c r="AZ12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Lampung": 0.313,</v>
+      </c>
+      <c r="BA12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Lampung": 0.324,</v>
+      </c>
+      <c r="BB12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Lampung": 0.301,</v>
+      </c>
     </row>
-    <row r="13" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
@@ -2148,8 +2345,28 @@
       <c r="AT13" t="s">
         <v>8</v>
       </c>
+      <c r="AX13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Kepulauan Bangka Belitung": 0.257,</v>
+      </c>
+      <c r="AY13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Kepulauan Bangka Belitung": 0.247,</v>
+      </c>
+      <c r="AZ13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Kepulauan Bangka Belitung": 0.255,</v>
+      </c>
+      <c r="BA13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Kepulauan Bangka Belitung": 0.245,</v>
+      </c>
+      <c r="BB13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Kepulauan Bangka Belitung": 0.235,</v>
+      </c>
     </row>
-    <row r="14" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -2288,8 +2505,28 @@
       <c r="AT14" t="s">
         <v>8</v>
       </c>
+      <c r="AX14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Kepulauan Riau": 0.334,</v>
+      </c>
+      <c r="AY14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Kepulauan Riau": 0.339,</v>
+      </c>
+      <c r="AZ14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Kepulauan Riau": 0.325,</v>
+      </c>
+      <c r="BA14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Kepulauan Riau": 0.34,</v>
+      </c>
+      <c r="BB14" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Kepulauan Riau": 0.357,</v>
+      </c>
     </row>
-    <row r="15" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
@@ -2428,8 +2665,28 @@
       <c r="AT15" t="s">
         <v>8</v>
       </c>
+      <c r="AX15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"DKI Jakarta": 0.4,</v>
+      </c>
+      <c r="AY15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"DKI Jakarta": 0.411,</v>
+      </c>
+      <c r="AZ15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"DKI Jakarta": 0.412,</v>
+      </c>
+      <c r="BA15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"DKI Jakarta": 0.431,</v>
+      </c>
+      <c r="BB15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"DKI Jakarta": 0.431,</v>
+      </c>
     </row>
-    <row r="16" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -2568,8 +2825,28 @@
       <c r="AT16" t="s">
         <v>8</v>
       </c>
+      <c r="AX16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Jawa Barat": 0.398,</v>
+      </c>
+      <c r="AY16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Jawa Barat": 0.406,</v>
+      </c>
+      <c r="AZ16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Jawa Barat": 0.412,</v>
+      </c>
+      <c r="BA16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Jawa Barat": 0.425,</v>
+      </c>
+      <c r="BB16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Jawa Barat": 0.428,</v>
+      </c>
     </row>
-    <row r="17" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -2708,8 +2985,28 @@
       <c r="AT17" t="s">
         <v>8</v>
       </c>
+      <c r="AX17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Jawa Tengah": 0.359,</v>
+      </c>
+      <c r="AY17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Jawa Tengah": 0.368,</v>
+      </c>
+      <c r="AZ17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Jawa Tengah": 0.366,</v>
+      </c>
+      <c r="BA17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Jawa Tengah": 0.369,</v>
+      </c>
+      <c r="BB17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Jawa Tengah": 0.364,</v>
+      </c>
     </row>
-    <row r="18" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -2848,8 +3145,28 @@
       <c r="AT18" t="s">
         <v>8</v>
       </c>
+      <c r="AX18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"DI Yogyakarta": 0.437,</v>
+      </c>
+      <c r="AY18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"DI Yogyakarta": 0.436,</v>
+      </c>
+      <c r="AZ18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"DI Yogyakarta": 0.459,</v>
+      </c>
+      <c r="BA18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"DI Yogyakarta": 0.449,</v>
+      </c>
+      <c r="BB18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"DI Yogyakarta": 0.428,</v>
+      </c>
     </row>
-    <row r="19" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2988,8 +3305,28 @@
       <c r="AT19" t="s">
         <v>8</v>
       </c>
+      <c r="AX19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Jawa Timur": 0.364,</v>
+      </c>
+      <c r="AY19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Jawa Timur": 0.364,</v>
+      </c>
+      <c r="AZ19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Jawa Timur": 0.365,</v>
+      </c>
+      <c r="BA19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Jawa Timur": 0.387,</v>
+      </c>
+      <c r="BB19" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Jawa Timur": 0.373,</v>
+      </c>
     </row>
-    <row r="20" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -3128,8 +3465,28 @@
       <c r="AT20" t="s">
         <v>8</v>
       </c>
+      <c r="AX20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Banten": 0.365,</v>
+      </c>
+      <c r="AY20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Banten": 0.363,</v>
+      </c>
+      <c r="AZ20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Banten": 0.377,</v>
+      </c>
+      <c r="BA20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Banten": 0.368,</v>
+      </c>
+      <c r="BB20" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Banten": 0.359,</v>
+      </c>
     </row>
-    <row r="21" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -3268,8 +3625,28 @@
       <c r="AT21" t="s">
         <v>8</v>
       </c>
+      <c r="AX21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Bali": 0.369,</v>
+      </c>
+      <c r="AY21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Bali": 0.375,</v>
+      </c>
+      <c r="AZ21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Bali": 0.362,</v>
+      </c>
+      <c r="BA21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Bali": 0.362,</v>
+      </c>
+      <c r="BB21" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Bali": 0.348,</v>
+      </c>
     </row>
-    <row r="22" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -3408,8 +3785,28 @@
       <c r="AT22" t="s">
         <v>8</v>
       </c>
+      <c r="AX22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Nusa Tenggara Barat": 0.386,</v>
+      </c>
+      <c r="AY22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Nusa Tenggara Barat": 0.384,</v>
+      </c>
+      <c r="AZ22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Nusa Tenggara Barat": 0.374,</v>
+      </c>
+      <c r="BA22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Nusa Tenggara Barat": 0.375,</v>
+      </c>
+      <c r="BB22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Nusa Tenggara Barat": 0.364,</v>
+      </c>
     </row>
-    <row r="23" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -3548,8 +3945,28 @@
       <c r="AT23" t="s">
         <v>8</v>
       </c>
+      <c r="AX23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Nusa Tenggara Timur": 0.356,</v>
+      </c>
+      <c r="AY23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Nusa Tenggara Timur": 0.339,</v>
+      </c>
+      <c r="AZ23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Nusa Tenggara Timur": 0.34,</v>
+      </c>
+      <c r="BA23" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Nusa Tenggara Timur": 0.325,</v>
+      </c>
+      <c r="BB23" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Nusa Tenggara Timur": 0.316,</v>
+      </c>
     </row>
-    <row r="24" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -3688,8 +4105,28 @@
       <c r="AT24" t="s">
         <v>8</v>
       </c>
+      <c r="AX24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Kalimantan Barat": 0.325,</v>
+      </c>
+      <c r="AY24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Kalimantan Barat": 0.315,</v>
+      </c>
+      <c r="AZ24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Kalimantan Barat": 0.311,</v>
+      </c>
+      <c r="BA24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Kalimantan Barat": 0.321,</v>
+      </c>
+      <c r="BB24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Kalimantan Barat": 0.314,</v>
+      </c>
     </row>
-    <row r="25" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -3828,8 +4265,28 @@
       <c r="AT25" t="s">
         <v>8</v>
       </c>
+      <c r="AX25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Kalimantan Tengah": 0.32,</v>
+      </c>
+      <c r="AY25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Kalimantan Tengah": 0.32,</v>
+      </c>
+      <c r="AZ25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Kalimantan Tengah": 0.309,</v>
+      </c>
+      <c r="BA25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Kalimantan Tengah": 0.317,</v>
+      </c>
+      <c r="BB25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Kalimantan Tengah": 0.304,</v>
+      </c>
     </row>
-    <row r="26" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -3968,8 +4425,28 @@
       <c r="AT26" t="s">
         <v>8</v>
       </c>
+      <c r="AX26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Kalimantan Selatan": 0.351,</v>
+      </c>
+      <c r="AY26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Kalimantan Selatan": 0.325,</v>
+      </c>
+      <c r="AZ26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Kalimantan Selatan": 0.309,</v>
+      </c>
+      <c r="BA26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Kalimantan Selatan": 0.313,</v>
+      </c>
+      <c r="BB26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Kalimantan Selatan": 0.298,</v>
+      </c>
     </row>
-    <row r="27" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
@@ -4108,8 +4585,28 @@
       <c r="AT27" t="s">
         <v>8</v>
       </c>
+      <c r="AX27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Kalimantan Timur": 0.335,</v>
+      </c>
+      <c r="AY27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Kalimantan Timur": 0.331,</v>
+      </c>
+      <c r="AZ27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Kalimantan Timur": 0.317,</v>
+      </c>
+      <c r="BA27" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Kalimantan Timur": 0.322,</v>
+      </c>
+      <c r="BB27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Kalimantan Timur": 0.31,</v>
+      </c>
     </row>
-    <row r="28" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
@@ -4248,8 +4745,28 @@
       <c r="AT28" t="s">
         <v>8</v>
       </c>
+      <c r="AX28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Kalimantan Utara": 0.3,</v>
+      </c>
+      <c r="AY28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Kalimantan Utara": 0.285,</v>
+      </c>
+      <c r="AZ28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Kalimantan Utara": 0.27,</v>
+      </c>
+      <c r="BA28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Kalimantan Utara": 0.277,</v>
+      </c>
+      <c r="BB28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Kalimantan Utara": 0.259,</v>
+      </c>
     </row>
-    <row r="29" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
@@ -4388,8 +4905,28 @@
       <c r="AT29" t="s">
         <v>8</v>
       </c>
+      <c r="AX29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Sulawesi Utara": 0.368,</v>
+      </c>
+      <c r="AY29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Sulawesi Utara": 0.359,</v>
+      </c>
+      <c r="AZ29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Sulawesi Utara": 0.359,</v>
+      </c>
+      <c r="BA29" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Sulawesi Utara": 0.37,</v>
+      </c>
+      <c r="BB29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Sulawesi Utara": 0.347,</v>
+      </c>
     </row>
-    <row r="30" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
@@ -4528,8 +5065,28 @@
       <c r="AT30" t="s">
         <v>8</v>
       </c>
+      <c r="AX30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Sulawesi Tengah": 0.321,</v>
+      </c>
+      <c r="AY30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Sulawesi Tengah": 0.326,</v>
+      </c>
+      <c r="AZ30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Sulawesi Tengah": 0.305,</v>
+      </c>
+      <c r="BA30" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Sulawesi Tengah": 0.304,</v>
+      </c>
+      <c r="BB30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Sulawesi Tengah": 0.309,</v>
+      </c>
     </row>
-    <row r="31" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
@@ -4668,8 +5225,28 @@
       <c r="AT31" t="s">
         <v>8</v>
       </c>
+      <c r="AX31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Sulawesi Selatan": 0.382,</v>
+      </c>
+      <c r="AY31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Sulawesi Selatan": 0.377,</v>
+      </c>
+      <c r="AZ31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Sulawesi Selatan": 0.365,</v>
+      </c>
+      <c r="BA31" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Sulawesi Selatan": 0.377,</v>
+      </c>
+      <c r="BB31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Sulawesi Selatan": 0.36,</v>
+      </c>
     </row>
-    <row r="32" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
@@ -4808,8 +5385,28 @@
       <c r="AT32" t="s">
         <v>8</v>
       </c>
+      <c r="AX32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Sulawesi Tenggara": 0.388,</v>
+      </c>
+      <c r="AY32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Sulawesi Tenggara": 0.394,</v>
+      </c>
+      <c r="AZ32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Sulawesi Tenggara": 0.366,</v>
+      </c>
+      <c r="BA32" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Sulawesi Tenggara": 0.371,</v>
+      </c>
+      <c r="BB32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Sulawesi Tenggara": 0.365,</v>
+      </c>
     </row>
-    <row r="33" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>39</v>
       </c>
@@ -4948,8 +5545,28 @@
       <c r="AT33" t="s">
         <v>8</v>
       </c>
+      <c r="AX33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Gorontalo": 0.406,</v>
+      </c>
+      <c r="AY33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Gorontalo": 0.409,</v>
+      </c>
+      <c r="AZ33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Gorontalo": 0.423,</v>
+      </c>
+      <c r="BA33" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Gorontalo": 0.417,</v>
+      </c>
+      <c r="BB33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Gorontalo": 0.413,</v>
+      </c>
     </row>
-    <row r="34" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>40</v>
       </c>
@@ -5088,8 +5705,28 @@
       <c r="AT34" t="s">
         <v>8</v>
       </c>
+      <c r="AX34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Sulawesi Barat": 0.356,</v>
+      </c>
+      <c r="AY34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Sulawesi Barat": 0.366,</v>
+      </c>
+      <c r="AZ34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Sulawesi Barat": 0.371,</v>
+      </c>
+      <c r="BA34" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Sulawesi Barat": 0.351,</v>
+      </c>
+      <c r="BB34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Sulawesi Barat": 0.33,</v>
+      </c>
     </row>
-    <row r="35" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
@@ -5228,8 +5865,28 @@
       <c r="AT35" t="s">
         <v>8</v>
       </c>
+      <c r="AX35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Maluku": 0.326,</v>
+      </c>
+      <c r="AY35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Maluku": 0.316,</v>
+      </c>
+      <c r="AZ35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Maluku": 0.306,</v>
+      </c>
+      <c r="BA35" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Maluku": 0.288,</v>
+      </c>
+      <c r="BB35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Maluku": 0.291,</v>
+      </c>
     </row>
-    <row r="36" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
@@ -5368,8 +6025,28 @@
       <c r="AT36" t="s">
         <v>8</v>
       </c>
+      <c r="AX36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Maluku Utara": 0.29,</v>
+      </c>
+      <c r="AY36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Maluku Utara": 0.278,</v>
+      </c>
+      <c r="AZ36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Maluku Utara": 0.309,</v>
+      </c>
+      <c r="BA36" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Maluku Utara": 0.3,</v>
+      </c>
+      <c r="BB36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Maluku Utara": 0.296,</v>
+      </c>
     </row>
-    <row r="37" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
@@ -5508,8 +6185,28 @@
       <c r="AT37" t="s">
         <v>8</v>
       </c>
+      <c r="AX37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Papua Barat": 0.376,</v>
+      </c>
+      <c r="AY37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Papua Barat": 0.374,</v>
+      </c>
+      <c r="AZ37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Papua Barat": 0.384,</v>
+      </c>
+      <c r="BA37" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Papua Barat": 0.37,</v>
+      </c>
+      <c r="BB37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Papua Barat": 0.385,</v>
+      </c>
     </row>
-    <row r="38" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
@@ -5648,8 +6345,28 @@
       <c r="AT38" t="s">
         <v>8</v>
       </c>
+      <c r="AX38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Papua Barat Daya": -,</v>
+      </c>
+      <c r="AY38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Papua Barat Daya": -,</v>
+      </c>
+      <c r="AZ38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Papua Barat Daya": -,</v>
+      </c>
+      <c r="BA38" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Papua Barat Daya": -,</v>
+      </c>
+      <c r="BB38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Papua Barat Daya": 0.347,</v>
+      </c>
     </row>
-    <row r="39" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>45</v>
       </c>
@@ -5788,8 +6505,28 @@
       <c r="AT39" t="s">
         <v>8</v>
       </c>
+      <c r="AX39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Papua": 0.395,</v>
+      </c>
+      <c r="AY39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Papua": 0.396,</v>
+      </c>
+      <c r="AZ39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Papua": 0.393,</v>
+      </c>
+      <c r="BA39" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Papua": 0.386,</v>
+      </c>
+      <c r="BB39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Papua": 0.405,</v>
+      </c>
     </row>
-    <row r="40" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -5928,8 +6665,28 @@
       <c r="AT40" t="s">
         <v>8</v>
       </c>
+      <c r="AX40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Papua Selatan": -,</v>
+      </c>
+      <c r="AY40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Papua Selatan": -,</v>
+      </c>
+      <c r="AZ40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Papua Selatan": -,</v>
+      </c>
+      <c r="BA40" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Papua Selatan": -,</v>
+      </c>
+      <c r="BB40" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Papua Selatan": 0.424,</v>
+      </c>
     </row>
-    <row r="41" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
@@ -6068,8 +6825,28 @@
       <c r="AT41" t="s">
         <v>8</v>
       </c>
+      <c r="AX41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Papua Tengah": -,</v>
+      </c>
+      <c r="AY41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Papua Tengah": -,</v>
+      </c>
+      <c r="AZ41" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Papua Tengah": -,</v>
+      </c>
+      <c r="BA41" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Papua Tengah": -,</v>
+      </c>
+      <c r="BB41" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Papua Tengah": 0.355,</v>
+      </c>
     </row>
-    <row r="42" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
@@ -6208,8 +6985,28 @@
       <c r="AT42" t="s">
         <v>8</v>
       </c>
+      <c r="AX42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Papua Pegunungan": -,</v>
+      </c>
+      <c r="AY42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Papua Pegunungan": -,</v>
+      </c>
+      <c r="AZ42" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Papua Pegunungan": -,</v>
+      </c>
+      <c r="BA42" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Papua Pegunungan": -,</v>
+      </c>
+      <c r="BB42" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Papua Pegunungan": 0.346,</v>
+      </c>
     </row>
-    <row r="43" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>49</v>
       </c>
@@ -6348,9 +7145,28 @@
       <c r="AT43" t="s">
         <v>8</v>
       </c>
+      <c r="AX43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"Indonesia": 0.385,</v>
+      </c>
+      <c r="AY43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>"Indonesia": 0.381,</v>
+      </c>
+      <c r="AZ43" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>"Indonesia": 0.381,</v>
+      </c>
+      <c r="BA43" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>"Indonesia": 0.388,</v>
+      </c>
+      <c r="BB43" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>"Indonesia": 0.381,</v>
+      </c>
     </row>
-    <row r="44" spans="1:46" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -6372,6 +7188,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
     <mergeCell ref="AI3:AK3"/>
     <mergeCell ref="AL3:AN3"/>
     <mergeCell ref="AO3:AQ3"/>
@@ -6388,10 +7208,6 @@
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
